--- a/outputs/Forgone_Revenue_From_Abatements.xlsx
+++ b/outputs/Forgone_Revenue_From_Abatements.xlsx
@@ -1027,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>8580.84748720301</v>
+        <v>13590.8188469453</v>
       </c>
     </row>
     <row r="48">
@@ -1041,7 +1041,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>35888.732512797</v>
+        <v>56842.5511530548</v>
       </c>
     </row>
     <row r="49">
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>270.250709221331</v>
+        <v>402.716224242701</v>
       </c>
     </row>
     <row r="50">
@@ -1069,7 +1069,7 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>1831.09043659686</v>
+        <v>2728.61384526203</v>
       </c>
     </row>
     <row r="51">
@@ -1083,7 +1083,7 @@
         <v>8</v>
       </c>
       <c r="D51" t="n">
-        <v>501.24885418181</v>
+        <v>746.939930495271</v>
       </c>
     </row>
     <row r="52">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>8580.84748720301</v>
+        <v>13590.8188469453</v>
       </c>
     </row>
     <row r="21">
@@ -1461,7 +1461,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>35888.732512797</v>
+        <v>56842.5511530548</v>
       </c>
     </row>
     <row r="22">
@@ -1909,7 +1909,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>270.250709221331</v>
+        <v>402.716224242701</v>
       </c>
     </row>
     <row r="30">
@@ -1923,7 +1923,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>1831.09043659686</v>
+        <v>2728.61384526203</v>
       </c>
     </row>
     <row r="31">
@@ -1937,7 +1937,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>501.24885418181</v>
+        <v>746.939930495271</v>
       </c>
     </row>
     <row r="32">
